--- a/2018_data/Ben_Koyack2018.xlsx
+++ b/2018_data/Ben_Koyack2018.xlsx
@@ -12,128 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
-  <si>
-    <t>https://www.pro-football-reference.com/players/K/KoyaBe00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-11-18</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>25.223</t>
-  </si>
-  <si>
-    <t>JAX</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>L 16-20</t>
-  </si>
-  <si>
-    <t>2018-11-25</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>25.230</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>L 21-24</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>2018-12-02</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>25.237</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>W 6-0</t>
-  </si>
-  <si>
-    <t>2018-12-06</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>25.241</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>L 9-30</t>
-  </si>
-  <si>
-    <t>2018-12-16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>25.251</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>L 13-16</t>
-  </si>
-  <si>
-    <t>2018-12-23</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25.258</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>W 17-7</t>
-  </si>
-  <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>25.265</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>L 3-20</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,192 +353,393 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-11-18</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>25.223</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>L 16-20</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25.230</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>L 21-24</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2018-12-02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25.237</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>W 6-0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2018-12-06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25.241</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>L 9-30</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2018-12-16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>25.251</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>L 13-16</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2018-12-23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25.258</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>W 17-7</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Koyack</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2018-12-30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25.265</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>L 3-20</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
